--- a/劲霜_20180328.xlsx
+++ b/劲霜_20180328.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/G-Drive/cx/mygit/wangyunpiao/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27300" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="颈霜" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>索引-按时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,24 +82,27 @@
   <si>
     <t>原始数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录日期</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -100,7 +111,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -109,7 +120,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -118,29 +129,37 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -158,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,6 +185,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -250,7 +284,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -268,92 +302,100 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="81">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -683,10 +725,10 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="5"/>
     <col min="3" max="3" width="64.1640625" style="5" bestFit="1" customWidth="1"/>
@@ -699,7 +741,7 @@
     <col min="13" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -721,8 +763,11 @@
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -744,8 +789,11 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="11">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -762,9 +810,14 @@
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="11">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -773,7 +826,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -782,7 +835,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -791,7 +844,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -800,7 +853,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -809,7 +862,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -818,7 +871,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -827,7 +880,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -836,7 +889,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -845,7 +898,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -854,7 +907,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -863,7 +916,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -872,7 +925,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -881,7 +934,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -890,7 +943,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -899,7 +952,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -908,7 +961,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -917,7 +970,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -926,7 +979,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -935,7 +988,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -944,7 +997,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -953,7 +1006,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -962,7 +1015,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -971,7 +1024,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -980,7 +1033,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -989,7 +1042,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -998,7 +1051,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1007,7 +1060,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1015,7 +1068,7 @@
       <c r="E31" s="9"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1024,7 +1077,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1033,7 +1086,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1041,7 +1094,7 @@
       <c r="E34" s="9"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1049,7 +1102,7 @@
       <c r="E35" s="9"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1057,7 +1110,7 @@
       <c r="E36" s="9"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1065,7 +1118,7 @@
       <c r="E37" s="9"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1073,7 +1126,7 @@
       <c r="E38" s="9"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1081,7 +1134,7 @@
       <c r="E39" s="9"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1089,14 +1142,14 @@
       <c r="E40" s="9"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="51" spans="9:9">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I51" s="7"/>
     </row>
   </sheetData>
@@ -1106,10 +1159,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/劲霜_20180328.xlsx
+++ b/劲霜_20180328.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="3480" yWindow="2680" windowWidth="30740" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="颈霜" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>索引-按时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>记录日期</t>
+  </si>
+  <si>
+    <t>内蒙古兴安盟突泉县金帝花园2号楼一单元二零五 杜小华 13113595501，五个颈纹霜</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>内蒙古兴安盟突泉县金帝花园2号楼一单元二零五</t>
+  </si>
+  <si>
+    <t>杜小华</t>
+  </si>
+  <si>
+    <t>13113595501</t>
   </si>
 </sst>
 </file>
@@ -97,7 +112,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,28 +144,28 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -725,7 +739,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H3"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -819,12 +833,27 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="11">
+        <v>43188</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>

--- a/劲霜_20180328.xlsx
+++ b/劲霜_20180328.xlsx
@@ -1,39 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/G-Drive/cx/mygit/wangyunpiao/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2680" windowWidth="30740" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="颈霜" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>索引-按时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,13 +101,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -125,7 +116,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -134,7 +125,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -143,28 +134,28 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -172,7 +163,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -321,87 +312,87 @@
     </xf>
   </cellXfs>
   <cellStyles count="81">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -735,458 +726,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="5"/>
-    <col min="3" max="3" width="64.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="10"/>
-    <col min="6" max="6" width="110.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="5"/>
-    <col min="10" max="12" width="10.83203125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="64.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="10"/>
+    <col min="5" max="5" width="110.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="5"/>
+    <col min="9" max="11" width="10.83203125" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9">
+        <v>15105852106</v>
+      </c>
+      <c r="D2" s="9">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9">
-        <v>15105852106</v>
-      </c>
-      <c r="E2" s="9">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11">
-        <v>43187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="11">
-        <v>43187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="11">
+      <c r="G4" s="11">
         <v>43188</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I51" s="7"/>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A2:H54">
-    <sortCondition ref="G1"/>
+    <sortCondition ref="F1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>